--- a/municipios.xlsx
+++ b/municipios.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/171b4091be173a04/Notebooks/Python/Lógica nebulosa/risco_fuzzy_mc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\OneDrive\Notebooks\Python\Lógica nebulosa\risco_fuzzy_mc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89470F59-E448-4EE6-9775-0977F4AABDA9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{89470F59-E448-4EE6-9775-0977F4AABDA9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{EC238F94-BDEB-4C9E-ACC7-7FB57587D3E2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{D08891D0-890E-4886-88BE-BE48AC74CCA2}"/>
   </bookViews>
@@ -33,9 +33,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>nome</t>
-  </si>
-  <si>
     <t>area</t>
   </si>
   <si>
@@ -49,6 +46,9 @@
   </si>
   <si>
     <t>Primavera</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -402,9 +402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8A9E74-A812-449A-8955-7A8E30AEFF57}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -414,18 +412,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>11</v>
@@ -436,7 +434,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>15</v>
@@ -447,7 +445,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>13</v>

--- a/municipios.xlsx
+++ b/municipios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\OneDrive\Notebooks\Python\Lógica nebulosa\risco_fuzzy_mc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlo\Documents\risco_fuzzy_mc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{89470F59-E448-4EE6-9775-0977F4AABDA9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{EC238F94-BDEB-4C9E-ACC7-7FB57587D3E2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8902885F-BF35-417D-A483-4F5547AB2F50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{D08891D0-890E-4886-88BE-BE48AC74CCA2}"/>
+    <workbookView xWindow="3510" yWindow="2115" windowWidth="28800" windowHeight="11385" xr2:uid="{D08891D0-890E-4886-88BE-BE48AC74CCA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -402,7 +402,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8A9E74-A812-449A-8955-7A8E30AEFF57}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -448,7 +450,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>17</v>
